--- a/core/sample_inputs/input_technical.xlsx
+++ b/core/sample_inputs/input_technical.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Revenue Earnings" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>Postage, telephone, telegram etc.</t>
   </si>
   <si>
-    <t>Stationery &amp; printing</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>Monthly Cost (in BDT)</t>
+  </si>
+  <si>
+    <t>Stationery and printing</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -837,7 +837,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +921,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5">
         <v>5</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
@@ -965,7 +965,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5">
         <v>2</v>

--- a/core/sample_inputs/input_technical.xlsx
+++ b/core/sample_inputs/input_technical.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Revenue Earnings" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,18 @@
     <sheet name="Expenses" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -520,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +576,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -607,7 +619,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +648,8 @@
         <v>9</v>
       </c>
       <c r="C2" s="5">
-        <v>1560000</v>
+        <f>8000*3*80</f>
+        <v>1920000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -658,7 +671,8 @@
         <v>13</v>
       </c>
       <c r="C4" s="5">
-        <v>125000</v>
+        <f>(0.9/100)*2900*10^5 / 12</f>
+        <v>217500</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,10 +938,10 @@
         <v>37</v>
       </c>
       <c r="B2" s="5">
-        <v>5</v>
+        <v>43.5</v>
       </c>
       <c r="C2" s="5">
-        <v>2</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
